--- a/13/3/1/3/Mensual 2003 a 2021 - Mensual.xlsx
+++ b/13/3/1/3/Mensual 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB223"/>
+  <dimension ref="A1:AB224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5758,6 +5761,14 @@
         <v>11337</v>
       </c>
     </row>
+    <row r="224" spans="1:21">
+      <c r="A224" t="s">
+        <v>248</v>
+      </c>
+      <c r="U224">
+        <v>1622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/3/1/3/Mensual 2003 a 2021 - Mensual.xlsx
+++ b/13/3/1/3/Mensual 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="250">
   <si>
     <t>Serie</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB224"/>
+  <dimension ref="A1:AB225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5769,6 +5772,14 @@
         <v>1622</v>
       </c>
     </row>
+    <row r="225" spans="1:21">
+      <c r="A225" t="s">
+        <v>249</v>
+      </c>
+      <c r="U225">
+        <v>1980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/3/1/3/Mensual 2003 a 2021 - Mensual.xlsx
+++ b/13/3/1/3/Mensual 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="251">
   <si>
     <t>Serie</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB225"/>
+  <dimension ref="A1:AB226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5780,6 +5783,14 @@
         <v>1980</v>
       </c>
     </row>
+    <row r="226" spans="1:21">
+      <c r="A226" t="s">
+        <v>250</v>
+      </c>
+      <c r="U226">
+        <v>357540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
